--- a/app/src/main/assets/Achievements.xlsx
+++ b/app/src/main/assets/Achievements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C3574F-2997-409B-A818-DE941DC39135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235419D3-F73E-4AA8-AEFB-D17B8132731B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>Collect 100 points</t>
   </si>
   <si>
-    <t>Have a rating of 5 in a course</t>
-  </si>
-  <si>
     <t>Accept a student request</t>
   </si>
   <si>
@@ -88,15 +85,6 @@
     <t>Have 10 courses eligible as tutor</t>
   </si>
   <si>
-    <t>Have a rating of 5 in 3 courses</t>
-  </si>
-  <si>
-    <t>Have a role to be tutor</t>
-  </si>
-  <si>
-    <t>Have a role to be student</t>
-  </si>
-  <si>
     <t>Request a tutoring session</t>
   </si>
   <si>
@@ -172,9 +160,6 @@
     <t>Session Expert</t>
   </si>
   <si>
-    <t>Beginner Tutor</t>
-  </si>
-  <si>
     <t>Session Maestro</t>
   </si>
   <si>
@@ -190,12 +175,6 @@
     <t>Master Tutor</t>
   </si>
   <si>
-    <t>Top-Rated Instructor</t>
-  </si>
-  <si>
-    <t>Highly Rated Mentor</t>
-  </si>
-  <si>
     <t>Learning Aspirant</t>
   </si>
   <si>
@@ -230,9 +209,6 @@
   </si>
   <si>
     <t>Educational Achiever</t>
-  </si>
-  <si>
-    <t>Beginner Student</t>
   </si>
   <si>
     <t>Session Participant</t>
@@ -565,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,15 +556,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -596,7 +572,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -604,7 +580,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -612,7 +588,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -620,7 +596,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -628,7 +604,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -636,7 +612,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -644,7 +620,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -652,7 +628,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -660,23 +636,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -684,7 +660,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -692,7 +668,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -700,7 +676,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -708,7 +684,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -716,7 +692,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -724,34 +700,10 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -761,10 +713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46E0685-0F6C-42F4-818D-5ECAC2ACEEBF}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,71 +727,71 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -847,7 +799,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -855,23 +807,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -879,7 +831,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -887,7 +839,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -895,42 +847,34 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/assets/Achievements.xlsx
+++ b/app/src/main/assets/Achievements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\AndroidStudioProjects\AcademicAlly\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235419D3-F73E-4AA8-AEFB-D17B8132731B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB534B5-4FB3-40B1-9D66-A138E020B6DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tutor" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
   <si>
     <t>Collect 100 points</t>
   </si>
@@ -73,18 +73,6 @@
     <t>Complete 10 sessions</t>
   </si>
   <si>
-    <t>Have a course eligible as tutor</t>
-  </si>
-  <si>
-    <t>Have 3 courses eligible as tutor</t>
-  </si>
-  <si>
-    <t>Have 5 courses eligible as tutor</t>
-  </si>
-  <si>
-    <t>Have 10 courses eligible as tutor</t>
-  </si>
-  <si>
     <t>Request a tutoring session</t>
   </si>
   <si>
@@ -97,27 +85,6 @@
     <t>Request 20 tutoring sessions</t>
   </si>
   <si>
-    <t>Have an accepted tutoring session</t>
-  </si>
-  <si>
-    <t>Have 3 accepted tutoring sessions</t>
-  </si>
-  <si>
-    <t>Have 10 accepted tutoring sessions</t>
-  </si>
-  <si>
-    <t>Have a course eligible as student</t>
-  </si>
-  <si>
-    <t>Have 3 courses eligible as student</t>
-  </si>
-  <si>
-    <t>Have 5 courses eligible as student</t>
-  </si>
-  <si>
-    <t>Have 10 courses eligible as student</t>
-  </si>
-  <si>
     <t>Novice Tutor</t>
   </si>
   <si>
@@ -224,6 +191,147 @@
   </si>
   <si>
     <t>Academic Voyager</t>
+  </si>
+  <si>
+    <t>Take an assignment</t>
+  </si>
+  <si>
+    <t>Take 5 assignments</t>
+  </si>
+  <si>
+    <t>Take 10 assignments</t>
+  </si>
+  <si>
+    <t>Create an assignment</t>
+  </si>
+  <si>
+    <t>Create 5 assignments</t>
+  </si>
+  <si>
+    <t>Create 10 assignments</t>
+  </si>
+  <si>
+    <t>Rate a student</t>
+  </si>
+  <si>
+    <t>Rate 5 students</t>
+  </si>
+  <si>
+    <t>Rate 10 students</t>
+  </si>
+  <si>
+    <t>Have a student rate you</t>
+  </si>
+  <si>
+    <t>Have 5 students rate you</t>
+  </si>
+  <si>
+    <t>Have 10 students rate you</t>
+  </si>
+  <si>
+    <t>Rate a tutor</t>
+  </si>
+  <si>
+    <t>Rate 5 tutors</t>
+  </si>
+  <si>
+    <t>Rate 10 tutors</t>
+  </si>
+  <si>
+    <t>Have a tutor rate you</t>
+  </si>
+  <si>
+    <t>Have 5 tutors rate you</t>
+  </si>
+  <si>
+    <t>Have 10 tutors rate you</t>
+  </si>
+  <si>
+    <t>Assignment Apprentice</t>
+  </si>
+  <si>
+    <t>Task Tackler</t>
+  </si>
+  <si>
+    <t>Assignment Aficionado</t>
+  </si>
+  <si>
+    <t>Tutor Tracker</t>
+  </si>
+  <si>
+    <t>Tutor Evaluator</t>
+  </si>
+  <si>
+    <t>Tutor Connoisseur</t>
+  </si>
+  <si>
+    <t>Self-Appraiser</t>
+  </si>
+  <si>
+    <t>Peer Reviewer</t>
+  </si>
+  <si>
+    <t>Expert Evaluator</t>
+  </si>
+  <si>
+    <t>Obtain an accepted tutoring session</t>
+  </si>
+  <si>
+    <t>Obtain 3 accepted tutoring sessions</t>
+  </si>
+  <si>
+    <t>Obtain 10 accepted tutoring sessions</t>
+  </si>
+  <si>
+    <t>Obtain a course eligible as student</t>
+  </si>
+  <si>
+    <t>Obtain 3 courses eligible as student</t>
+  </si>
+  <si>
+    <t>Obtain 5 courses eligible as student</t>
+  </si>
+  <si>
+    <t>Obtain 10 courses eligible as student</t>
+  </si>
+  <si>
+    <t>Obtain a course eligible as tutor</t>
+  </si>
+  <si>
+    <t>Obtain 3 courses eligible as tutor</t>
+  </si>
+  <si>
+    <t>Obtain 5 courses eligible as tutor</t>
+  </si>
+  <si>
+    <t>Obtain 10 courses eligible as tutor</t>
+  </si>
+  <si>
+    <t>Assignment Architect</t>
+  </si>
+  <si>
+    <t>Assignment Maestro</t>
+  </si>
+  <si>
+    <t>Assignment Virtuoso</t>
+  </si>
+  <si>
+    <t>Student Assessor</t>
+  </si>
+  <si>
+    <t>Teaching Critic</t>
+  </si>
+  <si>
+    <t>Pedagogical Judge</t>
+  </si>
+  <si>
+    <t>Self-Reflective Educator</t>
+  </si>
+  <si>
+    <t>Peer Evaluator</t>
+  </si>
+  <si>
+    <t>Master Mentor</t>
   </si>
 </sst>
 </file>
@@ -541,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +664,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -564,7 +672,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -572,7 +680,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -580,7 +688,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -588,7 +696,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -596,7 +704,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -604,7 +712,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -612,7 +720,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -620,7 +728,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -628,7 +736,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -636,7 +744,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -644,7 +752,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -652,7 +760,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -660,7 +768,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -668,7 +776,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -676,34 +784,106 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -713,10 +893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46E0685-0F6C-42F4-818D-5ECAC2ACEEBF}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,63 +907,63 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -791,7 +971,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -799,7 +979,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -807,7 +987,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -815,7 +995,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -823,7 +1003,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -831,7 +1011,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -839,7 +1019,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -847,34 +1027,106 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
